--- a/Task 1/Country-Code.xlsx
+++ b/Task 1/Country-Code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinge\Desktop\Data Engineer CC4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinge\Desktop\Data Engineer CC4\Task 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E8BA44-4DC3-4FE7-8F1F-665BD731A366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{790DD5B9-720A-4399-B229-A899529A87FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F44E485E-B9EA-7D43-9A7B-5903DA87CF9B}"/>
   </bookViews>
